--- a/docs/Timesheet_Joran_Vanhaste.xlsx
+++ b/docs/Timesheet_Joran_Vanhaste.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joran/Code/cmp3.local/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,9 +27,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Timesheet CMP III</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Taak</t>
+  </si>
+  <si>
+    <t>uur</t>
+  </si>
+  <si>
+    <t>sitemap+ productiedossier opstarten</t>
+  </si>
+  <si>
+    <t>Moodboard + style tiles</t>
+  </si>
+  <si>
+    <t>Style Tiles afwerken</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Wireframes afwerken + visual designs</t>
+  </si>
+  <si>
+    <t>Visuals afwerken</t>
+  </si>
+  <si>
+    <t>productiedossier samenstellen en afwerken, alles pushen</t>
+  </si>
+  <si>
+    <t>contactformulier in drupal 7 toevoegen + logo en naam veranderen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juiste mappenstructuur </t>
+  </si>
+  <si>
+    <t>Disclaimer + footer link+ Wijzigingen pushen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mappenstructuur gitlab aanpassen + repository gitlab </t>
   </si>
 </sst>
 </file>
@@ -34,7 +84,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -65,15 +114,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,25 +459,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42661</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42663</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42664</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42666</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42667</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42668</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42669</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42672</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42679</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42681</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f>SUM(C3:C13)</f>
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/Timesheet_Joran_Vanhaste.xlsx
+++ b/docs/Timesheet_Joran_Vanhaste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joran/Code/cmp3.local/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joran/Documents/3GDM/CMP3_DESIGN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Timesheet CMP III</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t xml:space="preserve">mappenstructuur gitlab aanpassen + repository gitlab </t>
+  </si>
+  <si>
+    <t>drupal7 template design</t>
+  </si>
+  <si>
+    <t>drupal7 template design (navigation + contact page)</t>
+  </si>
+  <si>
+    <t>drupal7 template + HTML template + puschen + productiedossier aanpassen</t>
   </si>
 </sst>
 </file>
@@ -459,16 +468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C13"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -607,10 +616,43 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42685</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C14">
-        <f>SUM(C3:C13)</f>
-        <v>22</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42686</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42687</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>SUM(C3:C16)</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -618,6 +660,5 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/Timesheet_Joran_Vanhaste.xlsx
+++ b/docs/Timesheet_Joran_Vanhaste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joran/Documents/3GDM/CMP3_DESIGN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joran/Code/cmp3.local/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Timesheet CMP III</t>
   </si>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>drupal7 template + HTML template + puschen + productiedossier aanpassen</t>
+  </si>
+  <si>
+    <t>Groepen aanmaken</t>
+  </si>
+  <si>
+    <t>Contact page opnieuw aanmaken + regio's aanmaken</t>
+  </si>
+  <si>
+    <t>Artikelen aanmaken + artikel detail</t>
+  </si>
+  <si>
+    <t>Profiel + login design</t>
+  </si>
+  <si>
+    <t>Template page aanpassen (background image) + artikels design + productiedossier aanpassen + pushen</t>
+  </si>
+  <si>
+    <t>Header + footer aanpassen</t>
+  </si>
+  <si>
+    <t>managers permissions + groepen aanpassen</t>
+  </si>
+  <si>
+    <t>Content types: dienst aanmaken</t>
   </si>
 </sst>
 </file>
@@ -468,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42687</v>
       </c>
@@ -649,10 +673,98 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42697</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C17">
-        <f>SUM(C3:C16)</f>
-        <v>32</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42702</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42711</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42712</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42714</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42718</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42721</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42722</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>SUM(C3:C24)</f>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Timesheet_Joran_Vanhaste.xlsx
+++ b/docs/Timesheet_Joran_Vanhaste.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Timesheet CMP III</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>Content types: dienst aanmaken</t>
+  </si>
+  <si>
+    <t>Volledig nieuw theme vanaf nul (design)</t>
+  </si>
+  <si>
+    <t>Design css afwerken</t>
+  </si>
+  <si>
+    <t>view groepen aangemaakt met categorie Dienst en subgroep - Artikelen</t>
+  </si>
+  <si>
+    <t>Betalingssysteem/uitwisselingssysteem met LETS toevoegen en errors oplossen</t>
+  </si>
+  <si>
+    <t>error oplossen (add content kon ik niet toevoegen) + probleem currency bekijken +  presentatie ppt maken + productie dossier verder aanvullen + google maps toevoegen + landingspagina toevoegen + persona sheets + ideabord aanmaken</t>
+  </si>
+  <si>
+    <t>Verder error betalingssysteem oplossen/ css responsive maken (mobile)  + productiedossier afwerken + privacy policy aanmaken</t>
   </si>
 </sst>
 </file>
@@ -492,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -662,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42687</v>
       </c>
@@ -750,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42722</v>
       </c>
@@ -761,10 +779,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42727</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C25">
-        <f>SUM(C3:C24)</f>
-        <v>68</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42728</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42731</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42732</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42733</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42734</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f>SUM(C3:C30)</f>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Timesheet_Joran_Vanhaste.xlsx
+++ b/docs/Timesheet_Joran_Vanhaste.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Timesheet CMP III</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Verder error betalingssysteem oplossen/ css responsive maken (mobile)  + productiedossier afwerken + privacy policy aanmaken</t>
+  </si>
+  <si>
+    <t>online plaatsen + pushen github, gitlab + productiedossier aanpassen</t>
   </si>
 </sst>
 </file>
@@ -512,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,9 +848,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42737</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -859,8 +869,8 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C34">
-        <f>SUM(C3:C30)</f>
-        <v>120</v>
+        <f>SUM(C3:C31)</f>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Timesheet_Joran_Vanhaste.xlsx
+++ b/docs/Timesheet_Joran_Vanhaste.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Timesheet CMP III</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>online plaatsen + pushen github, gitlab + productiedossier aanpassen</t>
+  </si>
+  <si>
+    <t>error proberen oplossen (currency) + alles afwerken</t>
   </si>
 </sst>
 </file>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,18 +862,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C34">
-        <f>SUM(C3:C31)</f>
-        <v>129</v>
+    <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42738</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f>SUM(C3:C32)</f>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
